--- a/docs/odh/shr-core-Observation.xlsx
+++ b/docs/odh/shr-core-Observation.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="436">
   <si>
     <t>Path</t>
   </si>
@@ -227,26 +227,111 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.meta.extension</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
   </si>
   <si>
     <t>extensions
@@ -260,216 +345,10 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Observation.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Observation.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -625,6 +504,9 @@
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
@@ -755,6 +637,10 @@
   </si>
   <si>
     <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
   </si>
   <si>
     <t>Date/Time this was made available</t>
@@ -906,6 +792,10 @@
     <t>Observation.comment</t>
   </si>
   <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>Comments about result</t>
   </si>
   <si>
@@ -957,7 +847,35 @@
     <t>Observation.bodySite.id</t>
   </si>
   <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Observation.bodySite.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>laterality</t>
@@ -991,6 +909,10 @@
   </si>
   <si>
     <t>Observation.bodySite.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -1609,7 +1531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP76"/>
+  <dimension ref="A1:AP69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1641,7 +1563,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="58.25390625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="53.765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -2150,10 +2072,10 @@
         <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>69</v>
@@ -2164,7 +2086,9 @@
       <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>45</v>
@@ -2213,7 +2137,7 @@
         <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -2237,7 +2161,7 @@
         <v>45</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>45</v>
@@ -2252,14 +2176,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>45</v>
@@ -2271,16 +2195,16 @@
         <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2306,37 +2230,37 @@
         <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>45</v>
@@ -2354,7 +2278,7 @@
         <v>45</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>45</v>
@@ -2365,11 +2289,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2385,19 +2309,19 @@
         <v>45</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2446,13 +2370,17 @@
       <c r="AD7" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>45</v>
@@ -2467,7 +2395,7 @@
         <v>45</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>45</v>
@@ -2478,18 +2406,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>45</v>
@@ -2498,19 +2426,19 @@
         <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2559,11 +2487,15 @@
       <c r="AD8" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>45</v>
       </c>
@@ -2580,7 +2512,7 @@
         <v>45</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>45</v>
@@ -2591,11 +2523,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2611,19 +2543,19 @@
         <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2672,11 +2604,15 @@
       <c r="AD9" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE9" s="2"/>
+      <c r="AE9" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>45</v>
       </c>
@@ -2693,7 +2629,7 @@
         <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>45</v>
@@ -2704,11 +2640,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2721,22 +2657,22 @@
         <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2762,13 +2698,13 @@
         <v>45</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>45</v>
@@ -2785,11 +2721,15 @@
       <c r="AD10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2806,7 +2746,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2817,7 +2757,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2840,18 +2780,18 @@
         <v>57</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>45</v>
       </c>
@@ -2875,13 +2815,13 @@
         <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>45</v>
@@ -2910,19 +2850,19 @@
         <v>45</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>45</v>
@@ -2930,41 +2870,41 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
       </c>
@@ -3011,15 +2951,11 @@
       <c r="AD12" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>45</v>
       </c>
@@ -3027,16 +2963,16 @@
         <v>45</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>45</v>
@@ -3047,7 +2983,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3055,7 +2991,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>56</v>
@@ -3064,24 +3000,26 @@
         <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3105,13 +3043,13 @@
         <v>45</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>45</v>
@@ -3128,15 +3066,11 @@
       <c r="AD13" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE13" t="s" s="2">
-        <v>125</v>
-      </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG13" s="2"/>
       <c r="AH13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3144,19 +3078,19 @@
         <v>45</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>45</v>
@@ -3164,11 +3098,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3187,18 +3121,20 @@
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3222,13 +3158,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3246,16 +3182,16 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>45</v>
@@ -3270,10 +3206,10 @@
         <v>45</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3281,18 +3217,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>45</v>
@@ -3301,21 +3237,21 @@
         <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3339,13 +3275,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3362,15 +3298,11 @@
       <c r="AD15" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE15" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="AE15" s="2"/>
       <c r="AF15" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG15" s="2"/>
       <c r="AH15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3378,38 +3310,38 @@
         <v>45</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>45</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>45</v>
@@ -3418,21 +3350,23 @@
         <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3480,13 +3414,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3495,19 +3429,19 @@
         <v>45</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3515,41 +3449,43 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3596,15 +3532,11 @@
       <c r="AD17" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE17" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG17" s="2"/>
       <c r="AH17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3612,19 +3544,19 @@
         <v>45</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3632,18 +3564,18 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>45</v>
@@ -3655,17 +3587,19 @@
         <v>57</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="N18" t="s" s="2">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3725,19 +3659,19 @@
         <v>45</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3745,18 +3679,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3768,18 +3702,18 @@
         <v>57</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3838,19 +3772,19 @@
         <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3858,7 +3792,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3866,34 +3800,32 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3918,13 +3850,13 @@
         <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>45</v>
@@ -3953,19 +3885,19 @@
         <v>45</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3973,7 +3905,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3993,22 +3925,22 @@
         <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4033,13 +3965,13 @@
         <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4056,51 +3988,47 @@
       <c r="AD21" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE21" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG21" s="2"/>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>56</v>
@@ -4112,20 +4040,22 @@
         <v>45</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N22" t="s" s="2">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4150,13 +4080,11 @@
         <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4179,41 +4107,41 @@
       </c>
       <c r="AG22" s="2"/>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>202</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>56</v>
@@ -4225,22 +4153,20 @@
         <v>45</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4265,13 +4191,13 @@
         <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>45</v>
@@ -4288,15 +4214,11 @@
       <c r="AD23" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE23" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG23" s="2"/>
       <c r="AH23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4304,31 +4226,31 @@
         <v>45</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4347,19 +4269,17 @@
         <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4419,19 +4339,19 @@
         <v>45</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4439,11 +4359,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4459,23 +4379,21 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4499,13 +4417,11 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4534,27 +4450,27 @@
         <v>45</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4574,20 +4490,18 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4635,11 +4549,15 @@
       <c r="AD26" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE26" s="2"/>
+      <c r="AE26" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG26" s="2"/>
+      <c r="AG26" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4653,13 +4571,13 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4667,11 +4585,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4687,21 +4605,21 @@
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>243</v>
+        <v>102</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>103</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4737,22 +4655,26 @@
         <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE27" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG27" s="2"/>
+      <c r="AG27" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4760,19 +4682,19 @@
         <v>45</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4780,9 +4702,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4800,23 +4724,17 @@
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="K28" s="2"/>
       <c r="L28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4863,41 +4781,47 @@
       <c r="AD28" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE28" s="2"/>
+      <c r="AE28" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG28" s="2"/>
+      <c r="AG28" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH28" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4918,20 +4842,14 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="K29" s="2"/>
       <c r="L29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4955,11 +4873,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4976,28 +4896,32 @@
       <c r="AD29" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE29" s="2"/>
+      <c r="AE29" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG29" s="2"/>
+      <c r="AG29" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH29" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5008,18 +4932,20 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="C30" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -5031,18 +4957,14 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="K30" s="2"/>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5066,13 +4988,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5089,11 +5011,15 @@
       <c r="AD30" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE30" s="2"/>
+      <c r="AE30" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG30" s="2"/>
+      <c r="AG30" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5104,24 +5030,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5132,7 +5058,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5141,20 +5067,22 @@
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>69</v>
+        <v>284</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="N31" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5214,16 +5142,16 @@
         <v>45</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5234,7 +5162,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5254,21 +5182,23 @@
         <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5292,11 +5222,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5328,7 +5260,7 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>296</v>
@@ -5340,12 +5272,12 @@
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5368,16 +5300,20 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>70</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5401,13 +5337,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5424,15 +5360,11 @@
       <c r="AD33" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE33" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE33" s="2"/>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5446,10 +5378,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5460,18 +5392,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>45</v>
@@ -5483,16 +5415,16 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5530,26 +5462,22 @@
         <v>45</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AE34" s="2"/>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5560,28 +5488,26 @@
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5602,13 +5528,17 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="K35" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="L35" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5656,15 +5586,11 @@
       <c r="AD35" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE35" t="s" s="2">
-        <v>83</v>
-      </c>
+      <c r="AE35" s="2"/>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG35" s="2"/>
       <c r="AH35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5675,28 +5601,26 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5717,14 +5641,20 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="K36" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5772,7 +5702,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5784,7 +5714,7 @@
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>45</v>
+        <v>331</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
@@ -5793,10 +5723,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5807,11 +5737,9 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5820,7 +5748,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -5832,11 +5760,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="K37" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="L37" t="s" s="2">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5887,13 +5817,13 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
@@ -5911,7 +5841,7 @@
         <v>45</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5922,11 +5852,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5942,23 +5872,21 @@
         <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>311</v>
+        <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6005,11 +5933,15 @@
       <c r="AD38" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE38" s="2"/>
+      <c r="AE38" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG38" s="2"/>
+      <c r="AG38" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6023,10 +5955,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6037,43 +5969,41 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>318</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6120,11 +6050,15 @@
       <c r="AD39" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE39" s="2"/>
+      <c r="AE39" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6138,10 +6072,10 @@
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>323</v>
+        <v>99</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6152,7 +6086,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6175,20 +6109,16 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>181</v>
+        <v>341</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6212,13 +6142,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6241,7 +6171,7 @@
       </c>
       <c r="AG40" s="2"/>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>45</v>
@@ -6253,10 +6183,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6267,7 +6197,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6290,17 +6220,15 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6354,7 +6282,7 @@
       </c>
       <c r="AG41" s="2"/>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>45</v>
@@ -6363,24 +6291,24 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>341</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6403,18 +6331,20 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>343</v>
+        <v>142</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6438,13 +6368,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6476,24 +6406,24 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>349</v>
+        <v>243</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6516,19 +6446,19 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6553,13 +6483,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6577,7 +6507,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6589,19 +6519,19 @@
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6612,7 +6542,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6635,16 +6565,18 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>69</v>
+        <v>368</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>70</v>
+        <v>369</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>71</v>
+        <v>370</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6691,15 +6623,11 @@
       <c r="AD44" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE44" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE44" s="2"/>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG44" s="2"/>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6716,7 +6644,7 @@
         <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>73</v>
+        <v>372</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6727,18 +6655,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6750,17 +6678,15 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6808,15 +6734,11 @@
       <c r="AD45" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE45" t="s" s="2">
-        <v>83</v>
-      </c>
+      <c r="AE45" s="2"/>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6830,10 +6752,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>73</v>
+        <v>376</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6844,41 +6766,43 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>147</v>
+        <v>378</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6926,7 +6850,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6938,7 +6862,7 @@
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>45</v>
+        <v>382</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -6947,10 +6871,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>142</v>
+        <v>384</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6961,7 +6885,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6984,13 +6908,13 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>367</v>
+        <v>246</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>368</v>
+        <v>264</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>369</v>
+        <v>265</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7040,13 +6964,17 @@
       <c r="AD47" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE47" s="2"/>
+      <c r="AE47" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG47" s="2"/>
+      <c r="AG47" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH47" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>45</v>
@@ -7058,10 +6986,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7072,18 +7000,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
@@ -7095,15 +7023,17 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>367</v>
+        <v>102</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>103</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7151,13 +7081,17 @@
       <c r="AD48" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE48" s="2"/>
+      <c r="AE48" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG48" s="2"/>
+      <c r="AG48" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH48" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>45</v>
@@ -7169,10 +7103,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>376</v>
+        <v>267</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7183,43 +7117,41 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>378</v>
+        <v>108</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7243,13 +7175,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7266,11 +7198,15 @@
       <c r="AD49" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE49" s="2"/>
+      <c r="AE49" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG49" s="2"/>
+      <c r="AG49" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7281,13 +7217,13 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>280</v>
+        <v>99</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7298,7 +7234,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7321,26 +7257,26 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>45</v>
@@ -7358,13 +7294,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7381,15 +7317,11 @@
       <c r="AD50" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE50" t="s" s="2">
-        <v>386</v>
-      </c>
+      <c r="AE50" s="2"/>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG50" s="2"/>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7400,13 +7332,13 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>385</v>
+        <v>99</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>280</v>
+        <v>396</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7417,7 +7349,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7425,7 +7357,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>56</v>
@@ -7440,18 +7372,16 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7519,7 +7449,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7530,7 +7460,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7541,7 +7471,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7550,19 +7480,23 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>69</v>
+        <v>326</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7618,7 +7552,7 @@
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>45</v>
+        <v>382</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
@@ -7627,10 +7561,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7641,7 +7575,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7661,23 +7595,19 @@
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>352</v>
+        <v>246</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>404</v>
+        <v>264</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7725,19 +7655,19 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>266</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
@@ -7746,10 +7676,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>410</v>
+        <v>267</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7760,18 +7690,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -7783,15 +7713,17 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7840,13 +7772,13 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
@@ -7864,7 +7796,7 @@
         <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -7875,11 +7807,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>75</v>
+        <v>337</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7892,22 +7824,22 @@
         <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7957,7 +7889,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -7981,7 +7913,7 @@
         <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -7992,41 +7924,41 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>147</v>
+        <v>413</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8050,13 +7982,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8073,15 +8005,11 @@
       <c r="AD56" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE56" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="AE56" s="2"/>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG56" s="2"/>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8092,16 +8020,16 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>45</v>
+        <v>415</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8109,7 +8037,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8129,29 +8057,29 @@
         <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>416</v>
+        <v>217</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>418</v>
+        <v>219</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>45</v>
@@ -8169,13 +8097,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>421</v>
+        <v>45</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8207,24 +8135,24 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>45</v>
+        <v>419</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>422</v>
+        <v>224</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8232,7 +8160,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>56</v>
@@ -8247,16 +8175,20 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>424</v>
+        <v>142</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8280,13 +8212,11 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8309,7 +8239,7 @@
       </c>
       <c r="AG58" s="2"/>
       <c r="AH58" t="s" s="2">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>45</v>
@@ -8321,10 +8251,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>427</v>
+        <v>233</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8335,18 +8265,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8355,22 +8285,22 @@
         <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>429</v>
+        <v>236</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>430</v>
+        <v>237</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>432</v>
+        <v>238</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8395,13 +8325,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8427,30 +8357,30 @@
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>433</v>
+        <v>242</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>434</v>
+        <v>243</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8461,7 +8391,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8473,16 +8403,20 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>69</v>
+        <v>326</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>70</v>
+        <v>426</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8529,15 +8463,11 @@
       <c r="AD60" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE60" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE60" s="2"/>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG60" s="2"/>
       <c r="AH60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8551,10 +8481,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>73</v>
+        <v>333</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8565,18 +8495,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8588,17 +8518,15 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8647,13 +8575,13 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
@@ -8671,7 +8599,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8682,11 +8610,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>363</v>
+        <v>101</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8699,22 +8627,22 @@
         <v>45</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>364</v>
+        <v>269</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8764,7 +8692,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>365</v>
+        <v>273</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8788,7 +8716,7 @@
         <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>142</v>
+        <v>267</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8799,41 +8727,41 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>439</v>
+        <v>108</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
@@ -8857,13 +8785,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -8880,11 +8808,15 @@
       <c r="AD63" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE63" s="2"/>
+      <c r="AE63" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG63" s="2"/>
+      <c r="AG63" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
       </c>
@@ -8895,16 +8827,16 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>441</v>
+        <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>45</v>
@@ -8912,7 +8844,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8932,23 +8864,19 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>252</v>
+        <v>341</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>443</v>
+        <v>342</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9001,7 +8929,7 @@
       </c>
       <c r="AG64" s="2"/>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>45</v>
@@ -9010,24 +8938,24 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>445</v>
+        <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9050,20 +8978,16 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>181</v>
+        <v>341</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>447</v>
+        <v>348</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9087,11 +9011,13 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y65" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9114,7 +9040,7 @@
       </c>
       <c r="AG65" s="2"/>
       <c r="AH65" t="s" s="2">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>45</v>
@@ -9126,10 +9052,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>142</v>
+        <v>345</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9140,11 +9066,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9163,19 +9089,19 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>274</v>
+        <v>353</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>450</v>
+        <v>354</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9200,13 +9126,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9238,24 +9164,24 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>278</v>
+        <v>358</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>279</v>
+        <v>359</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9278,19 +9204,19 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>452</v>
+        <v>361</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9315,13 +9241,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9353,13 +9279,13 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9370,7 +9296,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9393,16 +9319,18 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>69</v>
+        <v>368</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>70</v>
+        <v>369</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>71</v>
+        <v>370</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
@@ -9449,15 +9377,11 @@
       <c r="AD68" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE68" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE68" s="2"/>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG68" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG68" s="2"/>
       <c r="AH68" t="s" s="2">
         <v>45</v>
       </c>
@@ -9474,7 +9398,7 @@
         <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>73</v>
+        <v>372</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9485,18 +9409,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
@@ -9508,17 +9432,15 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -9566,15 +9488,11 @@
       <c r="AD69" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE69" t="s" s="2">
-        <v>83</v>
-      </c>
+      <c r="AE69" s="2"/>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG69" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG69" s="2"/>
       <c r="AH69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9588,813 +9506,20 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>73</v>
+        <v>376</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE71" s="2"/>
-      <c r="AF71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG71" s="2"/>
-      <c r="AH71" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE72" s="2"/>
-      <c r="AF72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG72" s="2"/>
-      <c r="AH72" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE73" s="2"/>
-      <c r="AF73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG73" s="2"/>
-      <c r="AH73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE74" s="2"/>
-      <c r="AF74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG74" s="2"/>
-      <c r="AH74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE75" s="2"/>
-      <c r="AF75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG75" s="2"/>
-      <c r="AH75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE76" s="2"/>
-      <c r="AF76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG76" s="2"/>
-      <c r="AH76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO76" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO76">
+  <autoFilter ref="A1:AO69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10404,7 +9529,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/shr-core-Observation.xlsx
+++ b/docs/odh/shr-core-Observation.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="477">
   <si>
     <t>Path</t>
   </si>
@@ -227,13 +227,162 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Observation.implicitRules</t>
+    <t>Observation.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SourceSystem-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Observation.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Observation.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Observation.meta.profile</t>
   </si>
   <si>
     <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Observation.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Observation.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -263,9 +412,6 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -334,24 +480,40 @@
     <t>Observation.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>observationpartof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ObservationPartOf-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
+    <t>A larger event of which this particular Observation is a component or step. For example, an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Annotation-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
+  </si>
+  <si>
+    <t>observationderivedfrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ObservationDerivedFrom-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -364,6 +526,16 @@
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>focalsubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-FocalSubject-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The person or entity that the information in this resource relates to, if different than the person of record. The subject of information can be a reference or a code, the latter when the subject is described generically, for example, in terms of a relationship to the subject of record (e.g., wife).</t>
   </si>
   <si>
     <t>Observation.identifier</t>
@@ -398,7 +570,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/DeviceRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/NutritionOrder], CanonicalType[http://hl7.org/fhir/StructureDefinition/ProcedureRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ReferralRequest]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-MedicationRequest], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ServiceRequest], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ProcedureRequest], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferralRequest]]}
 </t>
   </si>
   <si>
@@ -506,9 +678,6 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
@@ -536,7 +705,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Group], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location]]}
 </t>
   </si>
   <si>
@@ -573,7 +742,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -639,35 +808,31 @@
     <t>Observation.issued</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t>Date/Time this was made available</t>
+  </si>
+  <si>
+    <t>The date and time this observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>Updated when the result is updated.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson]]}
 </t>
   </si>
   <si>
-    <t>Date/Time this was made available</t>
-  </si>
-  <si>
-    <t>The date and time this observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>Updated when the result is updated.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
-</t>
-  </si>
-  <si>
     <t>Who is responsible for the observation</t>
   </si>
   <si>
@@ -693,7 +858,7 @@
   </si>
   <si>
     <t>Quantity {[]} {[]}
-CodeableConcept {[]} {[]}string {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}time {[]} {[]}dateTime {[]} {[]}Period {[]} {[]}</t>
+CodeableConcept {[]} {[]}string {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}SampledData {[]} {[]}time {[]} {[]}dateTime {[]} {[]}Period {[]} {[]}</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -792,127 +957,115 @@
     <t>Observation.comment</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>Comments about result</t>
+  </si>
+  <si>
+    <t>May include statements about significant, unexpected or unreliable values, or information about the source of the value where this may be relevant to the interpretation of the result.</t>
+  </si>
+  <si>
+    <t>Need to be able to provide free text additional information.</t>
+  </si>
+  <si>
+    <t>Event.note</t>
+  </si>
+  <si>
+    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
+  </si>
+  <si>
+    <t>subjectOf.observationEvent[code="annotation"].value</t>
+  </si>
+  <si>
+    <t>Observation.bodySite</t>
+  </si>
+  <si>
+    <t>Observed body part</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ body-site-instance](extension-body-site-instance.html).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-BodyLocationVS</t>
+  </si>
+  <si>
+    <t>&lt; 123037004 |Body structure|</t>
+  </si>
+  <si>
+    <t>OBX-20</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
+  </si>
+  <si>
+    <t>718497002 |Inherent location|</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.id</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.extension</t>
+  </si>
+  <si>
+    <t>laterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Laterality-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Comments about result</t>
-  </si>
-  <si>
-    <t>May include statements about significant, unexpected or unreliable values, or information about the source of the value where this may be relevant to the interpretation of the result.</t>
-  </si>
-  <si>
-    <t>Need to be able to provide free text additional information.</t>
-  </si>
-  <si>
-    <t>Event.note</t>
-  </si>
-  <si>
-    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
-  </si>
-  <si>
-    <t>subjectOf.observationEvent[code="annotation"].value</t>
-  </si>
-  <si>
-    <t>Observation.bodySite</t>
-  </si>
-  <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ body-site-instance](extension-body-site-instance.html).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/BodyLocationVS</t>
-  </si>
-  <si>
-    <t>&lt; 123037004 |Body structure|</t>
-  </si>
-  <si>
-    <t>OBX-20</t>
-  </si>
-  <si>
-    <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>718497002 |Inherent location|</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Orientation-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>laterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
+The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
+  </si>
+  <si>
+    <t>relationtolandmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
-  </si>
-  <si>
-    <t>orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
-  </si>
-  <si>
-    <t>relationtolandmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>An anatomical landmark that helps determine a body location.</t>
+    <t>The relationship between a landmark that helps determine a body location and the body location itself. The location relative to a landmark is specified by:
+* Specifying the location and type of landmark using a body site code and optional laterality/orientation,
+* Specifying the direction from the landmark to the body location, and
+* Specifying the distance from the landmark to the body location.
+The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>Observation.bodySite.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -1012,7 +1165,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device]]}
 </t>
   </si>
   <si>
@@ -1269,7 +1422,7 @@
     <t>Observation.related.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation]]}
 </t>
   </si>
   <si>
@@ -1531,7 +1684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP69"/>
+  <dimension ref="A1:AO81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1541,7 +1694,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.80078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1563,8 +1716,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.25390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.765625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.6171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -2072,10 +2225,10 @@
         <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>69</v>
@@ -2086,9 +2239,7 @@
       <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>45</v>
@@ -2137,7 +2288,7 @@
         <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -2161,7 +2312,7 @@
         <v>45</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>45</v>
@@ -2176,14 +2327,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>45</v>
@@ -2195,16 +2346,16 @@
         <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2230,37 +2381,37 @@
         <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AC6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>45</v>
@@ -2278,7 +2429,7 @@
         <v>45</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>45</v>
@@ -2289,11 +2440,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2314,15 +2467,11 @@
       <c r="J7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>88</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>45</v>
@@ -2371,16 +2520,16 @@
         <v>45</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>45</v>
@@ -2395,7 +2544,7 @@
         <v>45</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>45</v>
@@ -2406,18 +2555,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>45</v>
@@ -2426,19 +2575,19 @@
         <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2487,15 +2636,11 @@
       <c r="AD8" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>98</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>45</v>
       </c>
@@ -2512,7 +2657,7 @@
         <v>45</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>45</v>
@@ -2523,18 +2668,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>45</v>
@@ -2543,19 +2688,19 @@
         <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2604,15 +2749,11 @@
       <c r="AD9" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE9" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>45</v>
       </c>
@@ -2629,7 +2770,7 @@
         <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>45</v>
@@ -2640,11 +2781,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2657,22 +2798,22 @@
         <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="I10" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2721,15 +2862,11 @@
       <c r="AD10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2746,7 +2883,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2757,7 +2894,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2780,18 +2917,18 @@
         <v>57</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>45</v>
       </c>
@@ -2815,13 +2952,13 @@
         <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>45</v>
@@ -2850,19 +2987,19 @@
         <v>45</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>45</v>
@@ -2870,11 +3007,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2893,18 +3030,18 @@
         <v>57</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>45</v>
       </c>
@@ -2928,13 +3065,13 @@
         <v>45</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>45</v>
@@ -2963,16 +3100,16 @@
         <v>45</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>45</v>
@@ -2983,7 +3120,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2991,7 +3128,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>56</v>
@@ -3006,20 +3143,18 @@
         <v>57</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3043,13 +3178,13 @@
         <v>45</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>45</v>
@@ -3066,11 +3201,15 @@
       <c r="AD13" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE13" s="2"/>
+      <c r="AE13" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG13" s="2"/>
+      <c r="AG13" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3078,19 +3217,19 @@
         <v>45</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>45</v>
@@ -3098,7 +3237,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3121,20 +3260,18 @@
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3158,13 +3295,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3182,13 +3319,13 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>45</v>
@@ -3206,10 +3343,10 @@
         <v>45</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3217,15 +3354,15 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>56</v>
@@ -3237,21 +3374,21 @@
         <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3275,13 +3412,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3298,50 +3435,54 @@
       <c r="AD15" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE15" s="2"/>
+      <c r="AE15" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG15" s="2"/>
+      <c r="AG15" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>164</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>45</v>
@@ -3350,23 +3491,21 @@
         <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3414,13 +3553,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3429,19 +3568,19 @@
         <v>45</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3449,18 +3588,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>45</v>
@@ -3472,20 +3611,18 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3521,22 +3658,24 @@
         <v>45</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE17" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG17" s="2"/>
+      <c r="AG17" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3544,19 +3683,19 @@
         <v>45</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3564,18 +3703,20 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="C18" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>45</v>
@@ -3584,23 +3725,17 @@
         <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3647,11 +3782,15 @@
       <c r="AD18" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE18" s="2"/>
+      <c r="AE18" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG18" s="2"/>
+      <c r="AG18" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3659,19 +3798,19 @@
         <v>45</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3679,9 +3818,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3690,7 +3831,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3699,20 +3840,16 @@
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3760,11 +3897,15 @@
       <c r="AD19" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE19" s="2"/>
+      <c r="AE19" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG19" s="2"/>
+      <c r="AG19" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3778,13 +3919,13 @@
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3792,9 +3933,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3812,21 +3955,17 @@
         <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3873,11 +4012,15 @@
       <c r="AD20" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE20" s="2"/>
+      <c r="AE20" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG20" s="2"/>
+      <c r="AG20" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3885,19 +4028,19 @@
         <v>45</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3905,43 +4048,41 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -3977,52 +4118,56 @@
         <v>45</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE21" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG21" s="2"/>
+      <c r="AG21" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH21" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4031,32 +4176,26 @@
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="K22" s="2"/>
       <c r="L22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4080,11 +4219,13 @@
         <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4101,28 +4242,32 @@
       <c r="AD22" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE22" s="2"/>
+      <c r="AE22" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG22" s="2"/>
+      <c r="AG22" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH22" t="s" s="2">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4133,18 +4278,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4153,20 +4298,20 @@
         <v>45</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>168</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4191,13 +4336,13 @@
         <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>45</v>
@@ -4226,38 +4371,38 @@
         <v>45</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>243</v>
+        <v>172</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4266,20 +4411,20 @@
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4339,16 +4484,16 @@
         <v>45</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4359,7 +4504,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4367,7 +4512,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>56</v>
@@ -4376,24 +4521,26 @@
         <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4417,11 +4564,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4450,27 +4599,27 @@
         <v>45</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>260</v>
+        <v>192</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4493,16 +4642,20 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4526,13 +4679,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4550,13 +4703,13 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
@@ -4574,10 +4727,10 @@
         <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4585,18 +4738,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4605,21 +4758,21 @@
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4643,38 +4796,34 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AE27" s="2"/>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG27" s="2"/>
       <c r="AH27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4682,37 +4831,35 @@
         <v>45</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>56</v>
@@ -4724,17 +4871,23 @@
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="K28" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="L28" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4782,13 +4935,13 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>45</v>
@@ -4797,19 +4950,19 @@
         <v>45</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4817,13 +4970,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4842,14 +4993,20 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="K29" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="L29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4896,15 +5053,11 @@
       <c r="AD29" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE29" t="s" s="2">
-        <v>273</v>
-      </c>
+      <c r="AE29" s="2"/>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG29" s="2"/>
       <c r="AH29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4912,19 +5065,19 @@
         <v>45</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
@@ -4932,20 +5085,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -4954,17 +5105,23 @@
         <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="K30" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5011,15 +5168,11 @@
       <c r="AD30" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE30" t="s" s="2">
-        <v>273</v>
-      </c>
+      <c r="AE30" s="2"/>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG30" s="2"/>
       <c r="AH30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5027,19 +5180,19 @@
         <v>45</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5047,7 +5200,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5058,7 +5211,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5070,20 +5223,18 @@
         <v>57</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5148,13 +5299,13 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5162,7 +5313,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5173,7 +5324,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5185,19 +5336,17 @@
         <v>57</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5257,19 +5406,19 @@
         <v>45</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -5277,7 +5426,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5297,22 +5446,22 @@
         <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>142</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5337,13 +5486,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5366,33 +5515,33 @@
       </c>
       <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>45</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5415,18 +5564,20 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>308</v>
+        <v>196</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5450,13 +5601,11 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5479,37 +5628,37 @@
       </c>
       <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>313</v>
+        <v>145</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5528,18 +5677,18 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>317</v>
+        <v>196</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5563,13 +5712,13 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5601,24 +5750,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>324</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5641,19 +5790,17 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>326</v>
+        <v>69</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5701,32 +5848,28 @@
       <c r="AD36" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE36" t="s" s="2">
-        <v>325</v>
-      </c>
+      <c r="AE36" s="2"/>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG36" s="2"/>
       <c r="AH36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5737,7 +5880,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5760,15 +5903,17 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5793,13 +5938,11 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5816,15 +5959,11 @@
       <c r="AD37" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE37" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="AE37" s="2"/>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG37" s="2"/>
       <c r="AH37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5835,35 +5974,35 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>45</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -5875,17 +6014,15 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5934,13 +6071,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -5958,7 +6095,7 @@
         <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5969,11 +6106,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>337</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5986,22 +6123,22 @@
         <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6039,19 +6176,19 @@
         <v>45</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6075,7 +6212,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6086,9 +6223,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6109,13 +6248,11 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="K40" s="2"/>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6165,13 +6302,17 @@
       <c r="AD40" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE40" s="2"/>
+      <c r="AE40" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH40" t="s" s="2">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>45</v>
@@ -6183,10 +6324,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6197,9 +6338,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6220,13 +6363,11 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="K41" s="2"/>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6276,13 +6417,17 @@
       <c r="AD41" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE41" s="2"/>
+      <c r="AE41" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG41" s="2"/>
+      <c r="AG41" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH41" t="s" s="2">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>45</v>
@@ -6294,10 +6439,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6308,9 +6453,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6319,7 +6466,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6331,20 +6478,14 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="K42" s="2"/>
       <c r="L42" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6368,13 +6509,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6391,11 +6532,15 @@
       <c r="AD42" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE42" s="2"/>
+      <c r="AE42" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG42" s="2"/>
+      <c r="AG42" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6406,13 +6551,13 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6423,7 +6568,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6434,7 +6579,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6443,22 +6588,22 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6483,13 +6628,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>366</v>
+        <v>45</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6506,15 +6651,11 @@
       <c r="AD43" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE43" t="s" s="2">
-        <v>360</v>
-      </c>
+      <c r="AE43" s="2"/>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG43" s="2"/>
       <c r="AH43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6525,13 +6666,13 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6542,7 +6683,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6562,20 +6703,22 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>368</v>
+        <v>69</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6641,10 +6784,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6655,7 +6798,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6678,16 +6821,20 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6711,13 +6858,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -6752,10 +6899,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6766,7 +6913,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6786,23 +6933,21 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6849,43 +6994,39 @@
       <c r="AD46" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE46" t="s" s="2">
-        <v>377</v>
-      </c>
+      <c r="AE46" s="2"/>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6908,15 +7049,17 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>246</v>
+        <v>358</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>264</v>
+        <v>359</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -6964,15 +7107,11 @@
       <c r="AD47" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE47" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="AE47" s="2"/>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG47" s="2"/>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
@@ -6983,35 +7122,35 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>267</v>
+        <v>364</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
@@ -7023,18 +7162,20 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>102</v>
+        <v>367</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>103</v>
+        <v>368</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7082,7 +7223,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>273</v>
+        <v>366</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7094,7 +7235,7 @@
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7103,10 +7244,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>45</v>
+        <v>373</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>267</v>
+        <v>374</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7117,40 +7258,38 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7199,13 +7338,13 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>339</v>
+        <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
@@ -7223,7 +7362,7 @@
         <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7234,18 +7373,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7257,26 +7396,24 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>393</v>
+        <v>45</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>45</v>
@@ -7294,13 +7431,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7317,11 +7454,15 @@
       <c r="AD50" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE50" s="2"/>
+      <c r="AE50" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG50" s="2"/>
+      <c r="AG50" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7335,10 +7476,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>396</v>
+        <v>73</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7349,38 +7490,40 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7428,11 +7571,15 @@
       <c r="AD51" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE51" s="2"/>
+      <c r="AE51" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG51" s="2"/>
+      <c r="AG51" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7449,7 +7596,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>401</v>
+        <v>145</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7460,7 +7607,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7471,7 +7618,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7480,23 +7627,19 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7549,10 +7692,10 @@
       </c>
       <c r="AG52" s="2"/>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
@@ -7561,10 +7704,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7575,7 +7718,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7598,13 +7741,13 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>246</v>
+        <v>382</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>264</v>
+        <v>389</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>265</v>
+        <v>390</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7654,17 +7797,13 @@
       <c r="AD53" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE53" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="AE53" s="2"/>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG53" s="2"/>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>45</v>
@@ -7676,10 +7815,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>267</v>
+        <v>391</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7690,18 +7829,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -7713,18 +7852,20 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>103</v>
+        <v>393</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>269</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7748,13 +7889,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>45</v>
+        <v>397</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -7771,15 +7912,11 @@
       <c r="AD54" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE54" t="s" s="2">
-        <v>273</v>
-      </c>
+      <c r="AE54" s="2"/>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG54" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG54" s="2"/>
       <c r="AH54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7790,13 +7927,13 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -7807,41 +7944,43 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>108</v>
+        <v>402</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -7865,13 +8004,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>45</v>
+        <v>406</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -7889,7 +8028,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>339</v>
+        <v>401</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -7907,13 +8046,13 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>99</v>
+        <v>295</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -7924,7 +8063,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7932,7 +8071,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>56</v>
@@ -7944,20 +8083,20 @@
         <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>142</v>
+        <v>409</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>155</v>
+        <v>412</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -7982,13 +8121,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8020,16 +8159,16 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>415</v>
+        <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>162</v>
+        <v>413</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8037,7 +8176,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8057,23 +8196,19 @@
         <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8135,24 +8270,24 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>223</v>
+        <v>386</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>224</v>
+        <v>417</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8172,22 +8307,22 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>142</v>
+        <v>367</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8212,11 +8347,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8233,16 +8370,20 @@
       <c r="AD58" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE58" s="2"/>
+      <c r="AE58" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG58" s="2"/>
+      <c r="AG58" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH58" t="s" s="2">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>45</v>
+        <v>423</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>45</v>
@@ -8251,10 +8392,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>99</v>
+        <v>424</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>233</v>
+        <v>425</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8265,11 +8406,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8288,20 +8429,16 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8325,13 +8462,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8348,11 +8485,15 @@
       <c r="AD59" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE59" s="2"/>
+      <c r="AE59" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG59" s="2"/>
+      <c r="AG59" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8363,28 +8504,28 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8403,20 +8544,18 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8463,11 +8602,15 @@
       <c r="AD60" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE60" s="2"/>
+      <c r="AE60" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG60" s="2"/>
+      <c r="AG60" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8481,10 +8624,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>333</v>
+        <v>73</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8495,38 +8638,40 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>264</v>
+        <v>159</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8575,13 +8720,13 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>266</v>
+        <v>380</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
@@ -8599,7 +8744,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>267</v>
+        <v>145</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8610,18 +8755,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -8633,24 +8778,26 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>103</v>
+        <v>430</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>269</v>
+        <v>431</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>45</v>
+        <v>434</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>45</v>
@@ -8668,13 +8815,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>45</v>
+        <v>436</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8691,15 +8838,11 @@
       <c r="AD62" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE62" t="s" s="2">
-        <v>273</v>
-      </c>
+      <c r="AE62" s="2"/>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8713,10 +8856,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>267</v>
+        <v>437</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8727,40 +8870,38 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>102</v>
+        <v>439</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>108</v>
+        <v>440</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -8808,15 +8949,11 @@
       <c r="AD63" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE63" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="AE63" s="2"/>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG63" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG63" s="2"/>
       <c r="AH63" t="s" s="2">
         <v>45</v>
       </c>
@@ -8833,7 +8970,7 @@
         <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>99</v>
+        <v>442</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -8844,7 +8981,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8855,7 +8992,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
@@ -8864,19 +9001,23 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>342</v>
+        <v>444</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -8929,10 +9070,10 @@
       </c>
       <c r="AG64" s="2"/>
       <c r="AH64" t="s" s="2">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>45</v>
+        <v>423</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -8941,10 +9082,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>345</v>
+        <v>448</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>346</v>
+        <v>449</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -8955,7 +9096,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8978,13 +9119,13 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>341</v>
+        <v>69</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>348</v>
+        <v>70</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>349</v>
+        <v>71</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9034,13 +9175,17 @@
       <c r="AD65" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE65" s="2"/>
+      <c r="AE65" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG65" s="2"/>
+      <c r="AG65" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH65" t="s" s="2">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>45</v>
@@ -9052,10 +9197,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>350</v>
+        <v>73</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9066,18 +9211,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9089,20 +9234,18 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9126,13 +9269,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9149,11 +9292,15 @@
       <c r="AD66" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE66" s="2"/>
+      <c r="AE66" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG66" s="2"/>
+      <c r="AG66" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9164,13 +9311,13 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9181,11 +9328,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9198,26 +9345,24 @@
         <v>45</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>361</v>
+        <v>159</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9241,13 +9386,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>366</v>
+        <v>45</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9264,11 +9409,15 @@
       <c r="AD67" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE67" s="2"/>
+      <c r="AE67" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG67" s="2"/>
+      <c r="AG67" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9279,13 +9428,13 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9296,7 +9445,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9304,7 +9453,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>56</v>
@@ -9316,20 +9465,20 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>368</v>
+        <v>196</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>369</v>
+        <v>454</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>370</v>
+        <v>455</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>371</v>
+        <v>209</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9354,13 +9503,13 @@
         <v>45</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
@@ -9392,16 +9541,16 @@
         <v>45</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>45</v>
+        <v>456</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>372</v>
+        <v>215</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>45</v>
@@ -9409,7 +9558,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9429,19 +9578,23 @@
         <v>45</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>374</v>
+        <v>458</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9503,23 +9656,1391 @@
         <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO69" t="s" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X70" s="2"/>
+      <c r="Y70" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE70" s="2"/>
+      <c r="AF70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG70" s="2"/>
+      <c r="AH70" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE71" s="2"/>
+      <c r="AF71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG71" s="2"/>
+      <c r="AH71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE72" s="2"/>
+      <c r="AF72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG72" s="2"/>
+      <c r="AH72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE76" s="2"/>
+      <c r="AF76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG76" s="2"/>
+      <c r="AH76" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE77" s="2"/>
+      <c r="AF77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG77" s="2"/>
+      <c r="AH77" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE78" s="2"/>
+      <c r="AF78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG78" s="2"/>
+      <c r="AH78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE79" s="2"/>
+      <c r="AF79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG79" s="2"/>
+      <c r="AH79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE80" s="2"/>
+      <c r="AF80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG80" s="2"/>
+      <c r="AH80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE81" s="2"/>
+      <c r="AF81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG81" s="2"/>
+      <c r="AH81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO81" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO69">
+  <autoFilter ref="A1:AO81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9529,7 +11050,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
